--- a/DEV/ESCENARIOS_SPRINT_1.xlsx
+++ b/DEV/ESCENARIOS_SPRINT_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\Escritorio\DOCUMENTOS\DEV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045D211F-5D3E-483A-B6C0-7F7184B40277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850F6E32-541B-4558-9498-1E77140D0D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3B7820C9-1337-432C-A296-D62D7456F78F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>ESCENARIOS DE NEGOCIO</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>Pruebas de Microservicios de Product-App</t>
+  </si>
+  <si>
+    <t>US4:Implementacion de Ambiente de Trabajo User-App</t>
+  </si>
+  <si>
+    <t>US5:Pruebas de microservicios User-app</t>
   </si>
 </sst>
 </file>
@@ -612,7 +618,7 @@
   <dimension ref="B2:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,13 +675,17 @@
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="2:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
